--- a/data/pca/factorExposure/factorExposure_2017-01-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.006783410026715606</v>
+        <v>0.0102284666963681</v>
       </c>
       <c r="C2">
-        <v>-0.008779308624776591</v>
+        <v>-0.03868140580091716</v>
       </c>
       <c r="D2">
-        <v>0.040831538189409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0318647396044636</v>
+      </c>
+      <c r="E2">
+        <v>-0.05402667159453474</v>
+      </c>
+      <c r="F2">
+        <v>0.006774593470604718</v>
+      </c>
+      <c r="G2">
+        <v>0.1128609321856445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05068523319552248</v>
+        <v>0.03829350158411033</v>
       </c>
       <c r="C3">
-        <v>0.04547936745931196</v>
+        <v>-0.09875848380044039</v>
       </c>
       <c r="D3">
-        <v>0.1072106593759878</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0179820099368767</v>
+      </c>
+      <c r="E3">
+        <v>-0.09763034401984315</v>
+      </c>
+      <c r="F3">
+        <v>0.01902733497308773</v>
+      </c>
+      <c r="G3">
+        <v>0.1292402428576653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04574612908684317</v>
+        <v>0.05423490491516342</v>
       </c>
       <c r="C4">
-        <v>0.01248466466827119</v>
+        <v>-0.06602446501378402</v>
       </c>
       <c r="D4">
-        <v>0.06507693571865995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02598799243541257</v>
+      </c>
+      <c r="E4">
+        <v>-0.04459937070389113</v>
+      </c>
+      <c r="F4">
+        <v>0.00288231492344831</v>
+      </c>
+      <c r="G4">
+        <v>0.1004773873045477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01546304626305084</v>
+        <v>0.03296584105008957</v>
       </c>
       <c r="C6">
-        <v>0.01007782286323714</v>
+        <v>-0.05019076041552586</v>
       </c>
       <c r="D6">
-        <v>0.05516154552289116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01864510083637043</v>
+      </c>
+      <c r="E6">
+        <v>-0.04921063796176568</v>
+      </c>
+      <c r="F6">
+        <v>0.00481838048308721</v>
+      </c>
+      <c r="G6">
+        <v>0.08459606506243558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.007942944615421976</v>
+        <v>0.02005093832388262</v>
       </c>
       <c r="C7">
-        <v>0.003802727416776756</v>
+        <v>-0.03822109359483456</v>
       </c>
       <c r="D7">
-        <v>0.0365409504455109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01503183807871015</v>
+      </c>
+      <c r="E7">
+        <v>-0.01984600912753376</v>
+      </c>
+      <c r="F7">
+        <v>-0.003476453028023187</v>
+      </c>
+      <c r="G7">
+        <v>0.1257010321809439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0005985516184689305</v>
+        <v>0.003985424028157716</v>
       </c>
       <c r="C8">
-        <v>-8.915936703468513e-05</v>
+        <v>-0.02198725922274189</v>
       </c>
       <c r="D8">
-        <v>0.001213885181958512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004196358859233634</v>
+      </c>
+      <c r="E8">
+        <v>-0.03378423349048758</v>
+      </c>
+      <c r="F8">
+        <v>0.00137134567625454</v>
+      </c>
+      <c r="G8">
+        <v>0.06918376806118524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01876010403349704</v>
+        <v>0.03239233572571978</v>
       </c>
       <c r="C9">
-        <v>0.006152692168359231</v>
+        <v>-0.04695366347537792</v>
       </c>
       <c r="D9">
-        <v>0.04193288205366632</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01706527370023229</v>
+      </c>
+      <c r="E9">
+        <v>-0.03126669460385654</v>
+      </c>
+      <c r="F9">
+        <v>-0.0004664233516231808</v>
+      </c>
+      <c r="G9">
+        <v>0.1036878797568247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1224645020081384</v>
+        <v>0.1005217487629727</v>
       </c>
       <c r="C10">
-        <v>-0.0391011730745067</v>
+        <v>0.1864799785868778</v>
       </c>
       <c r="D10">
-        <v>-0.1722667043958972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.015445128094942</v>
+      </c>
+      <c r="E10">
+        <v>-0.02057553905771322</v>
+      </c>
+      <c r="F10">
+        <v>0.02127430365551812</v>
+      </c>
+      <c r="G10">
+        <v>0.0539292115407595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.02372891172890284</v>
+        <v>0.03543572730509401</v>
       </c>
       <c r="C11">
-        <v>0.02432749606557256</v>
+        <v>-0.05289809511657032</v>
       </c>
       <c r="D11">
-        <v>0.0479191572960308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002766620355773973</v>
+      </c>
+      <c r="E11">
+        <v>-0.02246062739786437</v>
+      </c>
+      <c r="F11">
+        <v>-0.01511902206312868</v>
+      </c>
+      <c r="G11">
+        <v>0.08469277431486869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.02304805491755216</v>
+        <v>0.0375407480874609</v>
       </c>
       <c r="C12">
-        <v>0.01649816946383564</v>
+        <v>-0.04724991548233336</v>
       </c>
       <c r="D12">
-        <v>0.04255496398402917</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006715873379234277</v>
+      </c>
+      <c r="E12">
+        <v>-0.01193610889620537</v>
+      </c>
+      <c r="F12">
+        <v>-0.002042052153339052</v>
+      </c>
+      <c r="G12">
+        <v>0.08004478182913065</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.004694459992432174</v>
+        <v>0.01192547864332001</v>
       </c>
       <c r="C13">
-        <v>-0.007974455203751308</v>
+        <v>-0.03768339678327784</v>
       </c>
       <c r="D13">
-        <v>0.03601913149933915</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02864324327882861</v>
+      </c>
+      <c r="E13">
+        <v>-0.05459974389686061</v>
+      </c>
+      <c r="F13">
+        <v>0.01469809798765621</v>
+      </c>
+      <c r="G13">
+        <v>0.1428442483573927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.00146889186242609</v>
+        <v>0.009041150739640832</v>
       </c>
       <c r="C14">
-        <v>0.001763897680251226</v>
+        <v>-0.02737904695415538</v>
       </c>
       <c r="D14">
-        <v>0.02334098180642718</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01116837491103162</v>
+      </c>
+      <c r="E14">
+        <v>-0.0156831782274252</v>
+      </c>
+      <c r="F14">
+        <v>0.006469147080649134</v>
+      </c>
+      <c r="G14">
+        <v>0.1156385395983918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.02020374640729684</v>
+        <v>0.03378564804003668</v>
       </c>
       <c r="C16">
-        <v>0.01765957510425522</v>
+        <v>-0.04536945775384235</v>
       </c>
       <c r="D16">
-        <v>0.03369250637992886</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002296843700047194</v>
+      </c>
+      <c r="E16">
+        <v>-0.01835488010181594</v>
+      </c>
+      <c r="F16">
+        <v>0.004462638440356728</v>
+      </c>
+      <c r="G16">
+        <v>0.08792231525473297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01870838315892251</v>
+        <v>0.01875848337751925</v>
       </c>
       <c r="C19">
-        <v>0.01074971935155442</v>
+        <v>-0.0501311361387178</v>
       </c>
       <c r="D19">
-        <v>0.05064529151460505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02153130324095493</v>
+      </c>
+      <c r="E19">
+        <v>-0.09127829204529611</v>
+      </c>
+      <c r="F19">
+        <v>0.007544658495255643</v>
+      </c>
+      <c r="G19">
+        <v>0.1381396360925782</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.004427877522190729</v>
+        <v>0.0144142046414666</v>
       </c>
       <c r="C20">
-        <v>0.003779744311914459</v>
+        <v>-0.03923318418681396</v>
       </c>
       <c r="D20">
-        <v>0.03562437394648415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01548013009692069</v>
+      </c>
+      <c r="E20">
+        <v>-0.04362394373038902</v>
+      </c>
+      <c r="F20">
+        <v>0.02438302944341104</v>
+      </c>
+      <c r="G20">
+        <v>0.1135854768375473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.001018599783585655</v>
+        <v>0.007926228501335683</v>
       </c>
       <c r="C21">
-        <v>-0.002265465611790918</v>
+        <v>-0.03578026761593782</v>
       </c>
       <c r="D21">
-        <v>0.0310818853423469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02089319487836173</v>
+      </c>
+      <c r="E21">
+        <v>-0.05625418260688891</v>
+      </c>
+      <c r="F21">
+        <v>0.01269238188747421</v>
+      </c>
+      <c r="G21">
+        <v>0.1471933924102295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001162392336308127</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.005848488916539111</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002418350432531107</v>
+      </c>
+      <c r="E22">
+        <v>-0.01880460875350662</v>
+      </c>
+      <c r="F22">
+        <v>-0.00451917440982246</v>
+      </c>
+      <c r="G22">
+        <v>0.00395666949483309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001137331441839251</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.005755364624025656</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002405123437942574</v>
+      </c>
+      <c r="E23">
+        <v>-0.01874081290662194</v>
+      </c>
+      <c r="F23">
+        <v>-0.004267386907578844</v>
+      </c>
+      <c r="G23">
+        <v>0.003817484553563916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.01437607757146587</v>
+        <v>0.02925819533392977</v>
       </c>
       <c r="C24">
-        <v>0.01462231120790391</v>
+        <v>-0.04918156976446302</v>
       </c>
       <c r="D24">
-        <v>0.04156067813779166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007464031823419088</v>
+      </c>
+      <c r="E24">
+        <v>-0.01774168912854731</v>
+      </c>
+      <c r="F24">
+        <v>-0.00602798841198938</v>
+      </c>
+      <c r="G24">
+        <v>0.08829201064661833</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.03161010064312229</v>
+        <v>0.04239244454583316</v>
       </c>
       <c r="C25">
-        <v>0.01737479524609584</v>
+        <v>-0.05706749761979243</v>
       </c>
       <c r="D25">
-        <v>0.05295770490274332</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01152300515186046</v>
+      </c>
+      <c r="E25">
+        <v>-0.009269284616722601</v>
+      </c>
+      <c r="F25">
+        <v>-0.004913440072746329</v>
+      </c>
+      <c r="G25">
+        <v>0.09469568492726045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.004652301242367303</v>
+        <v>0.01506637948483125</v>
       </c>
       <c r="C26">
-        <v>-0.01880347391776157</v>
+        <v>-0.01024423704396497</v>
       </c>
       <c r="D26">
-        <v>0.01097981410633799</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02436951873040969</v>
+      </c>
+      <c r="E26">
+        <v>-0.01238579991080882</v>
+      </c>
+      <c r="F26">
+        <v>0.006141026487061011</v>
+      </c>
+      <c r="G26">
+        <v>0.08606957810794895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1525901408812832</v>
+        <v>0.1316130654689414</v>
       </c>
       <c r="C28">
-        <v>-0.05616631535324802</v>
+        <v>0.2421269257686603</v>
       </c>
       <c r="D28">
-        <v>-0.1943481202690645</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006902352064453218</v>
+      </c>
+      <c r="E28">
+        <v>-0.001942410893086912</v>
+      </c>
+      <c r="F28">
+        <v>0.02042968153468619</v>
+      </c>
+      <c r="G28">
+        <v>0.04727460321448482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007187103901544169</v>
+        <v>0.008184504470252964</v>
       </c>
       <c r="C29">
-        <v>0.001875836365427741</v>
+        <v>-0.02306081837550634</v>
       </c>
       <c r="D29">
-        <v>0.01952869567303565</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01003878379333953</v>
+      </c>
+      <c r="E29">
+        <v>-0.008658137968842863</v>
+      </c>
+      <c r="F29">
+        <v>0.01125444286045178</v>
+      </c>
+      <c r="G29">
+        <v>0.1051624360700589</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02512127161541011</v>
+        <v>0.03838758898721327</v>
       </c>
       <c r="C30">
-        <v>0.01502970477890091</v>
+        <v>-0.06632611084643913</v>
       </c>
       <c r="D30">
-        <v>0.08723422725613732</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03064059179111055</v>
+      </c>
+      <c r="E30">
+        <v>-0.07222664218649874</v>
+      </c>
+      <c r="F30">
+        <v>-0.01948541207053386</v>
+      </c>
+      <c r="G30">
+        <v>0.1259222375606108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0284062826286942</v>
+        <v>0.05234527646949357</v>
       </c>
       <c r="C31">
-        <v>0.006752116814600206</v>
+        <v>-0.03805956615363755</v>
       </c>
       <c r="D31">
-        <v>0.01392933115615997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004053453990484287</v>
+      </c>
+      <c r="E31">
+        <v>0.000880985905463375</v>
+      </c>
+      <c r="F31">
+        <v>0.03501495699669097</v>
+      </c>
+      <c r="G31">
+        <v>0.09932666650108579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002089662788922119</v>
+        <v>0.001583118200320151</v>
       </c>
       <c r="C32">
-        <v>0.01836673224035919</v>
+        <v>-0.02051758594140765</v>
       </c>
       <c r="D32">
-        <v>0.02483350063303683</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.001696179671855246</v>
+      </c>
+      <c r="E32">
+        <v>-0.04746629652853539</v>
+      </c>
+      <c r="F32">
+        <v>-0.02871159874285847</v>
+      </c>
+      <c r="G32">
+        <v>0.07402747370319081</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01794662197467351</v>
+        <v>0.02693391399578403</v>
       </c>
       <c r="C33">
-        <v>0.01293127267732655</v>
+        <v>-0.04958218422135757</v>
       </c>
       <c r="D33">
-        <v>0.05212098952970224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01751773213868866</v>
+      </c>
+      <c r="E33">
+        <v>-0.05858505716246785</v>
+      </c>
+      <c r="F33">
+        <v>-0.006086201642450302</v>
+      </c>
+      <c r="G33">
+        <v>0.1600118193433024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.03619637322510808</v>
+        <v>0.04117139555868485</v>
       </c>
       <c r="C34">
-        <v>0.03387383028785907</v>
+        <v>-0.05977989530713641</v>
       </c>
       <c r="D34">
-        <v>0.04759412348502778</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004267799132804668</v>
+      </c>
+      <c r="E34">
+        <v>-0.01462265715587084</v>
+      </c>
+      <c r="F34">
+        <v>-0.01847400861912694</v>
+      </c>
+      <c r="G34">
+        <v>0.08668795154057475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008533019091879458</v>
+        <v>0.01577744643355368</v>
       </c>
       <c r="C36">
-        <v>-0.00948695111561863</v>
+        <v>-0.007311206093514802</v>
       </c>
       <c r="D36">
-        <v>0.001445328527691279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01324904453620526</v>
+      </c>
+      <c r="E36">
+        <v>-0.01541480910321744</v>
+      </c>
+      <c r="F36">
+        <v>0.007696209478593416</v>
+      </c>
+      <c r="G36">
+        <v>0.09813252611012863</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02445166403140047</v>
+        <v>0.03124424788411828</v>
       </c>
       <c r="C38">
-        <v>0.01959069590931754</v>
+        <v>-0.02620226563162135</v>
       </c>
       <c r="D38">
-        <v>0.01445616568441172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007150390123295323</v>
+      </c>
+      <c r="E38">
+        <v>-0.01113662553423148</v>
+      </c>
+      <c r="F38">
+        <v>0.01679094617346476</v>
+      </c>
+      <c r="G38">
+        <v>0.09010651516617829</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01462233536279061</v>
+        <v>0.03499127699845541</v>
       </c>
       <c r="C39">
-        <v>0.02870809916837324</v>
+        <v>-0.07751435203627197</v>
       </c>
       <c r="D39">
-        <v>0.08497236778847199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01263335270279805</v>
+      </c>
+      <c r="E39">
+        <v>-0.03420798619212374</v>
+      </c>
+      <c r="F39">
+        <v>-0.0149408032833218</v>
+      </c>
+      <c r="G39">
+        <v>0.09667504701593423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01493653353954979</v>
+        <v>0.01355908586379895</v>
       </c>
       <c r="C40">
-        <v>0.001587835306712562</v>
+        <v>-0.03500684103666268</v>
       </c>
       <c r="D40">
-        <v>0.02414406934869594</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01547095115886252</v>
+      </c>
+      <c r="E40">
+        <v>-0.03634575156625439</v>
+      </c>
+      <c r="F40">
+        <v>0.01722174280208575</v>
+      </c>
+      <c r="G40">
+        <v>0.1206262814717405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01055956455028175</v>
+        <v>0.01993913142173</v>
       </c>
       <c r="C41">
-        <v>-0.004542906319354516</v>
+        <v>-0.000371348600194282</v>
       </c>
       <c r="D41">
-        <v>-0.007006091000045416</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.005252446051546588</v>
+      </c>
+      <c r="E41">
+        <v>-0.01223655810442997</v>
+      </c>
+      <c r="F41">
+        <v>0.01494398363912111</v>
+      </c>
+      <c r="G41">
+        <v>0.09209415794477809</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.006869292083566798</v>
+        <v>0.005098110212955616</v>
       </c>
       <c r="C42">
-        <v>-0.05872345324681311</v>
+        <v>-0.0287015602678572</v>
       </c>
       <c r="D42">
-        <v>0.08952075286243362</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.0845929628195906</v>
+      </c>
+      <c r="E42">
+        <v>0.008629671961356932</v>
+      </c>
+      <c r="F42">
+        <v>0.03484296862588138</v>
+      </c>
+      <c r="G42">
+        <v>-0.01704900042537799</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02392614246215903</v>
+        <v>0.03505517879765027</v>
       </c>
       <c r="C43">
-        <v>0.00212503631110314</v>
+        <v>-0.01679216189824319</v>
       </c>
       <c r="D43">
-        <v>0.002973859276737141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.00652939738440821</v>
+      </c>
+      <c r="E43">
+        <v>-0.02729224726026681</v>
+      </c>
+      <c r="F43">
+        <v>0.01124572608266723</v>
+      </c>
+      <c r="G43">
+        <v>0.1198675635725137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.008537513815208711</v>
+        <v>0.01295635920564537</v>
       </c>
       <c r="C44">
-        <v>0.01907040324221741</v>
+        <v>-0.05561852356453079</v>
       </c>
       <c r="D44">
-        <v>0.04997824652114077</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007834746912486859</v>
+      </c>
+      <c r="E44">
+        <v>-0.03226026025272879</v>
+      </c>
+      <c r="F44">
+        <v>0.01828330794210026</v>
+      </c>
+      <c r="G44">
+        <v>0.117900439812507</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.002623268330043921</v>
+        <v>0.008278349077863892</v>
       </c>
       <c r="C46">
-        <v>-0.01017802570796345</v>
+        <v>-0.01489227637733624</v>
       </c>
       <c r="D46">
-        <v>0.003721287662251647</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0130559916690469</v>
+      </c>
+      <c r="E46">
+        <v>-0.002293486399615297</v>
+      </c>
+      <c r="F46">
+        <v>0.01397928244189696</v>
+      </c>
+      <c r="G46">
+        <v>0.1097578329089979</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.04873759334328182</v>
+        <v>0.07913700853903016</v>
       </c>
       <c r="C47">
-        <v>0.03328872732934424</v>
+        <v>-0.07163958171391839</v>
       </c>
       <c r="D47">
-        <v>0.04932194311416617</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.00507639199214933</v>
+      </c>
+      <c r="E47">
+        <v>0.009360782291494275</v>
+      </c>
+      <c r="F47">
+        <v>0.04491500779994185</v>
+      </c>
+      <c r="G47">
+        <v>0.08805444277117655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.006612869499770743</v>
+        <v>0.01880015310250934</v>
       </c>
       <c r="C48">
-        <v>0.0001329819621015514</v>
+        <v>-0.01189274971814552</v>
       </c>
       <c r="D48">
-        <v>-0.0003246770529503447</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.00281327581669969</v>
+      </c>
+      <c r="E48">
+        <v>-0.008896151121014571</v>
+      </c>
+      <c r="F48">
+        <v>0.01943040676708504</v>
+      </c>
+      <c r="G48">
+        <v>0.1047547560634842</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05582186921781732</v>
+        <v>0.07389702382256097</v>
       </c>
       <c r="C50">
-        <v>0.03083226878848106</v>
+        <v>-0.07132963099058436</v>
       </c>
       <c r="D50">
-        <v>0.04349580535797344</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002019912805814473</v>
+      </c>
+      <c r="E50">
+        <v>0.00853850955813525</v>
+      </c>
+      <c r="F50">
+        <v>0.04706737153483471</v>
+      </c>
+      <c r="G50">
+        <v>0.1002024893458885</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007989272764781138</v>
+        <v>0.01141037342187214</v>
       </c>
       <c r="C51">
-        <v>0.007338007923069662</v>
+        <v>-0.03496463449146996</v>
       </c>
       <c r="D51">
-        <v>0.03146531528367139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01175351645741664</v>
+      </c>
+      <c r="E51">
+        <v>-0.03548509017035045</v>
+      </c>
+      <c r="F51">
+        <v>-0.01042293988230453</v>
+      </c>
+      <c r="G51">
+        <v>0.1215644240248147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07102882024044579</v>
+        <v>0.08142338335690696</v>
       </c>
       <c r="C53">
-        <v>0.04472908375074858</v>
+        <v>-0.08589892139737043</v>
       </c>
       <c r="D53">
-        <v>0.06925408554830105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.004218466293028494</v>
+      </c>
+      <c r="E53">
+        <v>0.03353899796376474</v>
+      </c>
+      <c r="F53">
+        <v>0.05181735285101274</v>
+      </c>
+      <c r="G53">
+        <v>0.08816163750546653</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02331214106297662</v>
+        <v>0.03217979716848261</v>
       </c>
       <c r="C54">
-        <v>0.004749421538906024</v>
+        <v>-0.01703902096030655</v>
       </c>
       <c r="D54">
-        <v>-0.006469790972590884</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0005050609251222433</v>
+      </c>
+      <c r="E54">
+        <v>-0.02088557372719246</v>
+      </c>
+      <c r="F54">
+        <v>0.01020885085531906</v>
+      </c>
+      <c r="G54">
+        <v>0.109272929484027</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.05111314800453125</v>
+        <v>0.07384524811455993</v>
       </c>
       <c r="C55">
-        <v>0.03532323307557131</v>
+        <v>-0.06849193603779308</v>
       </c>
       <c r="D55">
-        <v>0.05386534292752079</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005566314152010908</v>
+      </c>
+      <c r="E55">
+        <v>0.03038785486593319</v>
+      </c>
+      <c r="F55">
+        <v>0.04927091716321377</v>
+      </c>
+      <c r="G55">
+        <v>0.06921371541115393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1121320809254681</v>
+        <v>0.1359303940679597</v>
       </c>
       <c r="C56">
-        <v>0.07016449282660248</v>
+        <v>-0.1091625791114674</v>
       </c>
       <c r="D56">
-        <v>0.09551468435975533</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01331691225445637</v>
+      </c>
+      <c r="E56">
+        <v>0.04067537747080052</v>
+      </c>
+      <c r="F56">
+        <v>0.06175966387976387</v>
+      </c>
+      <c r="G56">
+        <v>0.04893936667058448</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01072781963572378</v>
+        <v>0.003949536337836408</v>
       </c>
       <c r="C57">
-        <v>-0.01371076658350256</v>
+        <v>-0.004487327009415747</v>
       </c>
       <c r="D57">
-        <v>0.0195157013016609</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.0228157368914758</v>
+      </c>
+      <c r="E57">
+        <v>-0.02463312077321339</v>
+      </c>
+      <c r="F57">
+        <v>-0.0002824122002035845</v>
+      </c>
+      <c r="G57">
+        <v>0.01553817492972916</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04518680950271424</v>
+        <v>0.04186604193174379</v>
       </c>
       <c r="C58">
-        <v>0.04983744285466664</v>
+        <v>-0.03966194754277366</v>
       </c>
       <c r="D58">
-        <v>0.09502301858601291</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03193260661502361</v>
+      </c>
+      <c r="E58">
+        <v>-0.7947087176245183</v>
+      </c>
+      <c r="F58">
+        <v>0.507469758631854</v>
+      </c>
+      <c r="G58">
+        <v>-0.2615082958512589</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1949621001094994</v>
+        <v>0.1607276859204066</v>
       </c>
       <c r="C59">
-        <v>-0.04096166450366267</v>
+        <v>0.2061143003868925</v>
       </c>
       <c r="D59">
-        <v>-0.1918741139632989</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0107919466978255</v>
+      </c>
+      <c r="E59">
+        <v>-0.02365051093413605</v>
+      </c>
+      <c r="F59">
+        <v>0.004926163707632944</v>
+      </c>
+      <c r="G59">
+        <v>0.03572011558872819</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3046128240501729</v>
+        <v>0.2868399343720734</v>
       </c>
       <c r="C60">
-        <v>0.09817198145818536</v>
+        <v>-0.1146131443621186</v>
       </c>
       <c r="D60">
-        <v>0.1360786926861706</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0152143652483627</v>
+      </c>
+      <c r="E60">
+        <v>-0.09301226038585943</v>
+      </c>
+      <c r="F60">
+        <v>-0.3151279463872559</v>
+      </c>
+      <c r="G60">
+        <v>-0.1752091385511504</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.01869360736550516</v>
+        <v>0.0386032348143245</v>
       </c>
       <c r="C61">
-        <v>0.02668137228237612</v>
+        <v>-0.06456073663021285</v>
       </c>
       <c r="D61">
-        <v>0.06249168985918675</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.006507378970986922</v>
+      </c>
+      <c r="E61">
+        <v>-0.03177082711109162</v>
+      </c>
+      <c r="F61">
+        <v>-0.009134928178757187</v>
+      </c>
+      <c r="G61">
+        <v>0.09425218597298134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007475705065591086</v>
+        <v>0.01442401160448241</v>
       </c>
       <c r="C63">
-        <v>0.005664205912579486</v>
+        <v>-0.0288312096509644</v>
       </c>
       <c r="D63">
-        <v>0.02926918922569023</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.00892901280120284</v>
+      </c>
+      <c r="E63">
+        <v>-0.007718038024203278</v>
+      </c>
+      <c r="F63">
+        <v>0.01460939890163117</v>
+      </c>
+      <c r="G63">
+        <v>0.09389079345665263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.03909857586497941</v>
+        <v>0.04958900212225222</v>
       </c>
       <c r="C64">
-        <v>0.01632314910460462</v>
+        <v>-0.04676379704938326</v>
       </c>
       <c r="D64">
-        <v>0.03376442831665203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.005987208197163164</v>
+      </c>
+      <c r="E64">
+        <v>-0.006191202566353683</v>
+      </c>
+      <c r="F64">
+        <v>-0.007496865133004825</v>
+      </c>
+      <c r="G64">
+        <v>0.09707114618017569</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0715292867416821</v>
+        <v>0.07184392255678247</v>
       </c>
       <c r="C65">
-        <v>0.03255427371087393</v>
+        <v>-0.05922511680889236</v>
       </c>
       <c r="D65">
-        <v>0.08559797337637298</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01800573307612967</v>
+      </c>
+      <c r="E65">
+        <v>-0.05175453113941479</v>
+      </c>
+      <c r="F65">
+        <v>-0.01004225247718593</v>
+      </c>
+      <c r="G65">
+        <v>0.04076772379408506</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.0283202498086509</v>
+        <v>0.04706112662401674</v>
       </c>
       <c r="C66">
-        <v>0.04951721509704944</v>
+        <v>-0.1046340404705804</v>
       </c>
       <c r="D66">
-        <v>0.1266796557506929</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01338455560680653</v>
+      </c>
+      <c r="E66">
+        <v>-0.05522103618600961</v>
+      </c>
+      <c r="F66">
+        <v>-0.02403876251047337</v>
+      </c>
+      <c r="G66">
+        <v>0.1024356740696598</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05015590629354076</v>
+        <v>0.05502349689811112</v>
       </c>
       <c r="C67">
-        <v>0.0255445458885023</v>
+        <v>-0.03222195031644564</v>
       </c>
       <c r="D67">
-        <v>0.02525835115369955</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005948561253145027</v>
+      </c>
+      <c r="E67">
+        <v>0.0009609163755378513</v>
+      </c>
+      <c r="F67">
+        <v>0.01196726180713786</v>
+      </c>
+      <c r="G67">
+        <v>0.07578526554538222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1828794954144414</v>
+        <v>0.1603254498097461</v>
       </c>
       <c r="C68">
-        <v>-0.07836459392121402</v>
+        <v>0.2697198857472697</v>
       </c>
       <c r="D68">
-        <v>-0.225634752307289</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.00490962792881643</v>
+      </c>
+      <c r="E68">
+        <v>0.002452302265371675</v>
+      </c>
+      <c r="F68">
+        <v>0.04496736384410042</v>
+      </c>
+      <c r="G68">
+        <v>0.01941168171293664</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.05516031727654397</v>
+        <v>0.08195701458664723</v>
       </c>
       <c r="C69">
-        <v>0.03684663420604217</v>
+        <v>-0.07387605919001229</v>
       </c>
       <c r="D69">
-        <v>0.04500823635113563</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009037918183572996</v>
+      </c>
+      <c r="E69">
+        <v>0.02161403215330858</v>
+      </c>
+      <c r="F69">
+        <v>0.02537520519519801</v>
+      </c>
+      <c r="G69">
+        <v>0.1004527231502319</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1679651508867662</v>
+        <v>0.1466223010162524</v>
       </c>
       <c r="C71">
-        <v>-0.05456602819654088</v>
+        <v>0.2296876115065103</v>
       </c>
       <c r="D71">
-        <v>-0.1897184897091313</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003037092911715341</v>
+      </c>
+      <c r="E71">
+        <v>-0.02946202279205376</v>
+      </c>
+      <c r="F71">
+        <v>0.0278220727313686</v>
+      </c>
+      <c r="G71">
+        <v>0.0641448647807874</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.06236635315205592</v>
+        <v>0.08547394592863733</v>
       </c>
       <c r="C72">
-        <v>0.04703161340025794</v>
+        <v>-0.06787996565284413</v>
       </c>
       <c r="D72">
-        <v>0.06248024627842945</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.007747516687330578</v>
+      </c>
+      <c r="E72">
+        <v>-0.0006341168083804267</v>
+      </c>
+      <c r="F72">
+        <v>-0.03148835804872691</v>
+      </c>
+      <c r="G72">
+        <v>0.08151473884219346</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4263091104234243</v>
+        <v>0.3701608579167519</v>
       </c>
       <c r="C73">
-        <v>0.1465511443413028</v>
+        <v>-0.1253024838783426</v>
       </c>
       <c r="D73">
-        <v>0.2144161729830846</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02815774483341257</v>
+      </c>
+      <c r="E73">
+        <v>-0.2277133508293823</v>
+      </c>
+      <c r="F73">
+        <v>-0.541812423619889</v>
+      </c>
+      <c r="G73">
+        <v>-0.3207192547195789</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08706787306384431</v>
+        <v>0.1041542186405368</v>
       </c>
       <c r="C74">
-        <v>0.06865832888003261</v>
+        <v>-0.1096940713758472</v>
       </c>
       <c r="D74">
-        <v>0.1054517304969138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009611709987278895</v>
+      </c>
+      <c r="E74">
+        <v>0.01388527974753631</v>
+      </c>
+      <c r="F74">
+        <v>0.05751704777064028</v>
+      </c>
+      <c r="G74">
+        <v>0.07165043543329846</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2025420188269443</v>
+        <v>0.2459377783566225</v>
       </c>
       <c r="C75">
-        <v>0.1167706674181888</v>
+        <v>-0.1531554705928293</v>
       </c>
       <c r="D75">
-        <v>0.1456862684419448</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03256776768694644</v>
+      </c>
+      <c r="E75">
+        <v>0.1012195472563711</v>
+      </c>
+      <c r="F75">
+        <v>0.1405523603012659</v>
+      </c>
+      <c r="G75">
+        <v>0.0005955847989457391</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1034946418275098</v>
+        <v>0.1149441890272244</v>
       </c>
       <c r="C76">
-        <v>0.08004428690469809</v>
+        <v>-0.1113574823175795</v>
       </c>
       <c r="D76">
-        <v>0.1075376732428676</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01822712695287187</v>
+      </c>
+      <c r="E76">
+        <v>0.04303843940669359</v>
+      </c>
+      <c r="F76">
+        <v>0.08411793202758568</v>
+      </c>
+      <c r="G76">
+        <v>0.06177128036710602</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.04357788160459709</v>
+        <v>0.07043653614330438</v>
       </c>
       <c r="C77">
-        <v>0.02687099552443622</v>
+        <v>-0.05613560372129805</v>
       </c>
       <c r="D77">
-        <v>0.06576012485616979</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.0111083700887531</v>
+      </c>
+      <c r="E77">
+        <v>-0.05657587900938647</v>
+      </c>
+      <c r="F77">
+        <v>0.002907919089776578</v>
+      </c>
+      <c r="G77">
+        <v>0.07383103362911095</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.03408484683934587</v>
+        <v>0.03961862567532532</v>
       </c>
       <c r="C78">
-        <v>0.02565724149508905</v>
+        <v>-0.0528625813637133</v>
       </c>
       <c r="D78">
-        <v>0.05548439148372877</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.00796213940064075</v>
+      </c>
+      <c r="E78">
+        <v>-0.04433760436895723</v>
+      </c>
+      <c r="F78">
+        <v>-0.02746436360383252</v>
+      </c>
+      <c r="G78">
+        <v>0.09865446155143283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001986215367886381</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0007119291449902417</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0007822608646791665</v>
+      </c>
+      <c r="E79">
+        <v>-0.007483482728445503</v>
+      </c>
+      <c r="F79">
+        <v>3.35012478703998e-05</v>
+      </c>
+      <c r="G79">
+        <v>0.006621360421444173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03964295113362809</v>
+        <v>0.04063037576300895</v>
       </c>
       <c r="C80">
-        <v>0.02348995582230596</v>
+        <v>-0.05126016299537123</v>
       </c>
       <c r="D80">
-        <v>0.06741986051226978</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01430636876548201</v>
+      </c>
+      <c r="E80">
+        <v>-0.03436174335736662</v>
+      </c>
+      <c r="F80">
+        <v>0.001842585497837778</v>
+      </c>
+      <c r="G80">
+        <v>0.05472902619015779</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1095691469763255</v>
+        <v>0.1377154437628406</v>
       </c>
       <c r="C81">
-        <v>0.06133693071907583</v>
+        <v>-0.09682124159022551</v>
       </c>
       <c r="D81">
-        <v>0.07487965810760298</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01594135799488901</v>
+      </c>
+      <c r="E81">
+        <v>0.06198755139899379</v>
+      </c>
+      <c r="F81">
+        <v>0.1105930646240872</v>
+      </c>
+      <c r="G81">
+        <v>0.02724113006916636</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.03082964357228666</v>
+        <v>0.1491838313783565</v>
       </c>
       <c r="C82">
-        <v>0.0160152105811045</v>
+        <v>-0.0949465458105912</v>
       </c>
       <c r="D82">
-        <v>0.02257089854672101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01444489282916635</v>
+      </c>
+      <c r="E82">
+        <v>0.1375999091017676</v>
+      </c>
+      <c r="F82">
+        <v>0.04061545123878456</v>
+      </c>
+      <c r="G82">
+        <v>0.05193795070293514</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01981559278156953</v>
+        <v>0.03364863813691341</v>
       </c>
       <c r="C83">
-        <v>0.00745196432207137</v>
+        <v>-0.03237981502642077</v>
       </c>
       <c r="D83">
-        <v>0.02021010403156511</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.007324204453625597</v>
+      </c>
+      <c r="E83">
+        <v>-0.03717598772120308</v>
+      </c>
+      <c r="F83">
+        <v>-0.03028044735740574</v>
+      </c>
+      <c r="G83">
+        <v>0.05566329295544337</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1967789385832013</v>
+        <v>0.2071448106147223</v>
       </c>
       <c r="C85">
-        <v>0.1102611866485953</v>
+        <v>-0.1454536458269081</v>
       </c>
       <c r="D85">
-        <v>0.1625695749400064</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01782125363213271</v>
+      </c>
+      <c r="E85">
+        <v>0.1120354161813523</v>
+      </c>
+      <c r="F85">
+        <v>0.07511334646802489</v>
+      </c>
+      <c r="G85">
+        <v>-0.03322853162867274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.007159520634359112</v>
+        <v>0.0120180675509866</v>
       </c>
       <c r="C86">
-        <v>0.00579801925678711</v>
+        <v>-0.02619700747695199</v>
       </c>
       <c r="D86">
-        <v>0.02623404736065646</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01333569678409691</v>
+      </c>
+      <c r="E86">
+        <v>-0.06873614804227149</v>
+      </c>
+      <c r="F86">
+        <v>-0.02181071467101169</v>
+      </c>
+      <c r="G86">
+        <v>0.1802852837809573</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007309618379682065</v>
+        <v>0.02130671730247508</v>
       </c>
       <c r="C87">
-        <v>0.006597184165583756</v>
+        <v>-0.0175275650481584</v>
       </c>
       <c r="D87">
-        <v>0.03401848782690878</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01338455139986354</v>
+      </c>
+      <c r="E87">
+        <v>-0.09925465568948329</v>
+      </c>
+      <c r="F87">
+        <v>0.01997707795380582</v>
+      </c>
+      <c r="G87">
+        <v>0.1147908046756164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06938335382801987</v>
+        <v>0.09056423846793998</v>
       </c>
       <c r="C88">
-        <v>0.01070304171206185</v>
+        <v>-0.0707292223569511</v>
       </c>
       <c r="D88">
-        <v>0.05550415770370516</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02251685812772298</v>
+      </c>
+      <c r="E88">
+        <v>0.001589884912837609</v>
+      </c>
+      <c r="F88">
+        <v>0.01825610260736465</v>
+      </c>
+      <c r="G88">
+        <v>0.105106068862559</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2778937581352953</v>
+        <v>0.2353395312059414</v>
       </c>
       <c r="C89">
-        <v>-0.1003369035104483</v>
+        <v>0.3643132709750895</v>
       </c>
       <c r="D89">
-        <v>-0.3205780788384366</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0004296599891103449</v>
+      </c>
+      <c r="E89">
+        <v>0.02372401664940169</v>
+      </c>
+      <c r="F89">
+        <v>0.01847350871304928</v>
+      </c>
+      <c r="G89">
+        <v>0.07831127042196395</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2432875941028815</v>
+        <v>0.213843796610623</v>
       </c>
       <c r="C90">
-        <v>-0.08796530752716566</v>
+        <v>0.313646587989226</v>
       </c>
       <c r="D90">
-        <v>-0.291383245708144</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004771034163245599</v>
+      </c>
+      <c r="E90">
+        <v>0.01040112305825189</v>
+      </c>
+      <c r="F90">
+        <v>0.05074270626437764</v>
+      </c>
+      <c r="G90">
+        <v>0.04752903629517538</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1604041670946776</v>
+        <v>0.1839421361101699</v>
       </c>
       <c r="C91">
-        <v>0.08575004730381811</v>
+        <v>-0.1378771947923635</v>
       </c>
       <c r="D91">
-        <v>0.09482896454648859</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02334289111979527</v>
+      </c>
+      <c r="E91">
+        <v>0.08245974266362473</v>
+      </c>
+      <c r="F91">
+        <v>0.1100212053545989</v>
+      </c>
+      <c r="G91">
+        <v>0.03697611020411486</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2239847515417305</v>
+        <v>0.2008426966575293</v>
       </c>
       <c r="C92">
-        <v>-0.02932830156855791</v>
+        <v>0.2555423182503195</v>
       </c>
       <c r="D92">
-        <v>-0.2345590759677683</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03837413444765446</v>
+      </c>
+      <c r="E92">
+        <v>-0.02009051199394522</v>
+      </c>
+      <c r="F92">
+        <v>0.05684118567608982</v>
+      </c>
+      <c r="G92">
+        <v>0.08727306680143523</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2615744205006792</v>
+        <v>0.2363919606565238</v>
       </c>
       <c r="C93">
-        <v>-0.06948673622894939</v>
+        <v>0.3090348683562913</v>
       </c>
       <c r="D93">
-        <v>-0.2703088886832653</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01052920741586593</v>
+      </c>
+      <c r="E93">
+        <v>-0.005785706517963938</v>
+      </c>
+      <c r="F93">
+        <v>0.03865569136764833</v>
+      </c>
+      <c r="G93">
+        <v>0.06149090718435753</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2124196287931879</v>
+        <v>0.321546060630345</v>
       </c>
       <c r="C94">
-        <v>0.09561029249485956</v>
+        <v>-0.199655304707217</v>
       </c>
       <c r="D94">
-        <v>0.1461146088452938</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02610342534301272</v>
+      </c>
+      <c r="E94">
+        <v>0.3528627210701885</v>
+      </c>
+      <c r="F94">
+        <v>0.4244197299179902</v>
+      </c>
+      <c r="G94">
+        <v>-0.3813709698162784</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.06371886157182602</v>
+        <v>0.09183910154684598</v>
       </c>
       <c r="C95">
-        <v>0.07338904193281923</v>
+        <v>-0.08035950519518059</v>
       </c>
       <c r="D95">
-        <v>0.1298874303257393</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.008899222113978958</v>
+      </c>
+      <c r="E95">
+        <v>-0.1109748263256047</v>
+      </c>
+      <c r="F95">
+        <v>-0.1570936199589989</v>
+      </c>
+      <c r="G95">
+        <v>0.06315787452582525</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.205259301818176</v>
+        <v>0.1904719219694094</v>
       </c>
       <c r="C98">
-        <v>0.08389586696511178</v>
+        <v>-0.0513918864154452</v>
       </c>
       <c r="D98">
-        <v>0.07101128398368384</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01021203786558932</v>
+      </c>
+      <c r="E98">
+        <v>-0.1268762418617807</v>
+      </c>
+      <c r="F98">
+        <v>-0.2080954487170353</v>
+      </c>
+      <c r="G98">
+        <v>-0.04915974334116972</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006883986450446906</v>
+        <v>0.008028612089349962</v>
       </c>
       <c r="C101">
-        <v>0.002062300904500974</v>
+        <v>-0.02293756868256487</v>
       </c>
       <c r="D101">
-        <v>0.01972449130832571</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009857928341947137</v>
+      </c>
+      <c r="E101">
+        <v>-0.008211446158932765</v>
+      </c>
+      <c r="F101">
+        <v>0.01213735696034367</v>
+      </c>
+      <c r="G101">
+        <v>0.1048117080471924</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1018466703383428</v>
+        <v>0.1169524430065063</v>
       </c>
       <c r="C102">
-        <v>0.04680432388484779</v>
+        <v>-0.08567252355972869</v>
       </c>
       <c r="D102">
-        <v>0.08152466363632876</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0001699944649277898</v>
+      </c>
+      <c r="E102">
+        <v>0.03975734632257748</v>
+      </c>
+      <c r="F102">
+        <v>0.01937870625870592</v>
+      </c>
+      <c r="G102">
+        <v>0.02354922659988835</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.157339970980486</v>
+        <v>0.02118223953807201</v>
       </c>
       <c r="C104">
-        <v>-0.9066930553595658</v>
+        <v>0.02893907451840026</v>
       </c>
       <c r="D104">
-        <v>0.3683337630696596</v>
+        <v>-0.9867973015853885</v>
+      </c>
+      <c r="E104">
+        <v>0.07588268251141783</v>
+      </c>
+      <c r="F104">
+        <v>0.02486919798195378</v>
+      </c>
+      <c r="G104">
+        <v>-0.03913751139257172</v>
       </c>
     </row>
   </sheetData>
